--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C131D9-58BA-4DDB-A7C5-D1A3B53D969C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AC78C9-5F75-4DB2-8EC4-B24C0F659949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,26 @@
   </si>
   <si>
     <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,15 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G52" sqref="A1:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +472,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -459,8 +495,20 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -470,8 +518,20 @@
       <c r="C3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -481,8 +541,20 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -492,8 +564,20 @@
       <c r="C5" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -503,8 +587,20 @@
       <c r="C6" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -514,8 +610,20 @@
       <c r="C7" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -525,8 +633,20 @@
       <c r="C8" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -536,8 +656,20 @@
       <c r="C9" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -547,8 +679,20 @@
       <c r="C10" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -558,8 +702,20 @@
       <c r="C11" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -569,8 +725,20 @@
       <c r="C12" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -580,8 +748,20 @@
       <c r="C13" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -591,8 +771,20 @@
       <c r="C14" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -602,8 +794,20 @@
       <c r="C15" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -613,8 +817,20 @@
       <c r="C16" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -624,8 +840,20 @@
       <c r="C17" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -635,8 +863,20 @@
       <c r="C18" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -646,8 +886,20 @@
       <c r="C19" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -657,8 +909,20 @@
       <c r="C20" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -668,8 +932,20 @@
       <c r="C21" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -679,8 +955,20 @@
       <c r="C22" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>55</v>
+      </c>
+      <c r="G22" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -690,8 +978,20 @@
       <c r="C23" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -701,8 +1001,20 @@
       <c r="C24" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>67</v>
+      </c>
+      <c r="G24" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -712,8 +1024,20 @@
       <c r="C25" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -723,8 +1047,20 @@
       <c r="C26" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -734,8 +1070,20 @@
       <c r="C27" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -745,8 +1093,20 @@
       <c r="C28" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>98</v>
+      </c>
+      <c r="G28" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -756,8 +1116,20 @@
       <c r="C29" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>108</v>
+      </c>
+      <c r="G29" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -767,8 +1139,20 @@
       <c r="C30" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>119</v>
+      </c>
+      <c r="G30" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -778,8 +1162,20 @@
       <c r="C31" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>131</v>
+      </c>
+      <c r="G31" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -789,8 +1185,20 @@
       <c r="C32" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>144</v>
+      </c>
+      <c r="G32" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -800,8 +1208,20 @@
       <c r="C33" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>158</v>
+      </c>
+      <c r="G33" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -811,8 +1231,20 @@
       <c r="C34" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>174</v>
+      </c>
+      <c r="G34" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -822,8 +1254,20 @@
       <c r="C35" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>192</v>
+      </c>
+      <c r="G35" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -833,8 +1277,20 @@
       <c r="C36" s="1">
         <v>421</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>211</v>
+      </c>
+      <c r="G36" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -844,8 +1300,20 @@
       <c r="C37" s="1">
         <v>463</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>232</v>
+      </c>
+      <c r="G37" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -855,8 +1323,20 @@
       <c r="C38" s="1">
         <v>509</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>255</v>
+      </c>
+      <c r="G38" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -866,8 +1346,20 @@
       <c r="C39" s="1">
         <v>560</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>280</v>
+      </c>
+      <c r="G39" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -877,8 +1369,20 @@
       <c r="C40" s="1">
         <v>616</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>308</v>
+      </c>
+      <c r="G40" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -888,8 +1392,20 @@
       <c r="C41" s="1">
         <v>678</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>339</v>
+      </c>
+      <c r="G41" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -899,8 +1415,20 @@
       <c r="C42" s="1">
         <v>746</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>373</v>
+      </c>
+      <c r="G42" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -910,8 +1438,20 @@
       <c r="C43" s="1">
         <v>858</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
+        <v>429</v>
+      </c>
+      <c r="G43" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -921,8 +1461,20 @@
       <c r="C44" s="1">
         <v>987</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>494</v>
+      </c>
+      <c r="G44" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -932,8 +1484,20 @@
       <c r="C45" s="1">
         <v>1135</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>568</v>
+      </c>
+      <c r="G45" s="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -943,8 +1507,20 @@
       <c r="C46" s="1">
         <v>1305</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1">
+        <v>653</v>
+      </c>
+      <c r="G46" s="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -954,8 +1530,20 @@
       <c r="C47" s="1">
         <v>1501</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>751</v>
+      </c>
+      <c r="G47" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -965,8 +1553,20 @@
       <c r="C48" s="1">
         <v>1726</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D48" s="1">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>863</v>
+      </c>
+      <c r="G48" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -976,8 +1576,20 @@
       <c r="C49" s="1">
         <v>1985</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D49" s="1">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>993</v>
+      </c>
+      <c r="G49" s="1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -987,8 +1599,20 @@
       <c r="C50" s="1">
         <v>2283</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1142</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -998,8 +1622,20 @@
       <c r="C51" s="1">
         <v>2625</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51" s="1">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1313</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1008,6 +1644,18 @@
       </c>
       <c r="C52" s="1">
         <v>3019</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1510</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1509</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AC78C9-5F75-4DB2-8EC4-B24C0F659949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C145DB9A-B74A-4CE8-983B-F338C148CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,14 +452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G52" sqref="A1:G52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -470,42 +471,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -522,14 +523,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -545,14 +542,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -568,14 +561,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -591,14 +580,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -614,14 +599,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
         <v>22</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -637,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
         <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>13</v>
       </c>
       <c r="G8" s="1">
         <v>13</v>
@@ -660,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>15</v>
@@ -683,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
         <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>17</v>
       </c>
       <c r="G10" s="1">
         <v>17</v>
@@ -706,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>19</v>
       </c>
       <c r="G11" s="1">
         <v>19</v>
@@ -729,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>21</v>
@@ -752,10 +733,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>23</v>
       </c>
       <c r="G13" s="1">
         <v>23</v>
@@ -775,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
         <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>26</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
@@ -798,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1">
         <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>28</v>
       </c>
       <c r="G15" s="1">
         <v>28</v>
@@ -821,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
         <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>31</v>
       </c>
       <c r="G16" s="1">
         <v>31</v>
@@ -844,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>34</v>
       </c>
       <c r="G17" s="1">
         <v>34</v>
@@ -867,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1">
         <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>37</v>
@@ -890,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1">
         <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>42</v>
       </c>
       <c r="G19" s="1">
         <v>41</v>
@@ -913,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1">
         <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>46</v>
       </c>
       <c r="G20" s="1">
         <v>45</v>
@@ -936,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
         <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>50</v>
       </c>
       <c r="G21" s="1">
         <v>50</v>
@@ -959,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>55</v>
       </c>
       <c r="G22" s="1">
         <v>55</v>
@@ -982,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="1">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1">
         <v>5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>61</v>
       </c>
       <c r="G23" s="1">
         <v>60</v>
@@ -1005,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1">
         <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>67</v>
       </c>
       <c r="G24" s="1">
         <v>66</v>
@@ -1028,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="1">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1">
         <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>73</v>
       </c>
       <c r="G25" s="1">
         <v>73</v>
@@ -1051,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1">
         <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>81</v>
       </c>
       <c r="G26" s="1">
         <v>80</v>
@@ -1074,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1">
         <v>5</v>
-      </c>
-      <c r="F27" s="1">
-        <v>89</v>
       </c>
       <c r="G27" s="1">
         <v>88</v>
@@ -1097,10 +1078,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="1">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1">
         <v>6</v>
-      </c>
-      <c r="F28" s="1">
-        <v>98</v>
       </c>
       <c r="G28" s="1">
         <v>97</v>
@@ -1120,10 +1101,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="1">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1">
         <v>6</v>
-      </c>
-      <c r="F29" s="1">
-        <v>108</v>
       </c>
       <c r="G29" s="1">
         <v>107</v>
@@ -1143,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1">
         <v>6</v>
-      </c>
-      <c r="F30" s="1">
-        <v>119</v>
       </c>
       <c r="G30" s="1">
         <v>118</v>
@@ -1166,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="1">
+        <v>131</v>
+      </c>
+      <c r="F31" s="1">
         <v>6</v>
-      </c>
-      <c r="F31" s="1">
-        <v>131</v>
       </c>
       <c r="G31" s="1">
         <v>130</v>
@@ -1189,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="1">
+        <v>144</v>
+      </c>
+      <c r="F32" s="1">
         <v>6</v>
-      </c>
-      <c r="F32" s="1">
-        <v>144</v>
       </c>
       <c r="G32" s="1">
         <v>143</v>
@@ -1212,10 +1193,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1">
+        <v>158</v>
+      </c>
+      <c r="F33" s="1">
         <v>7</v>
-      </c>
-      <c r="F33" s="1">
-        <v>158</v>
       </c>
       <c r="G33" s="1">
         <v>158</v>
@@ -1235,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="1">
+        <v>174</v>
+      </c>
+      <c r="F34" s="1">
         <v>7</v>
-      </c>
-      <c r="F34" s="1">
-        <v>174</v>
       </c>
       <c r="G34" s="1">
         <v>174</v>
@@ -1258,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="1">
+        <v>192</v>
+      </c>
+      <c r="F35" s="1">
         <v>7</v>
-      </c>
-      <c r="F35" s="1">
-        <v>192</v>
       </c>
       <c r="G35" s="1">
         <v>191</v>
@@ -1281,10 +1262,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="1">
+        <v>211</v>
+      </c>
+      <c r="F36" s="1">
         <v>7</v>
-      </c>
-      <c r="F36" s="1">
-        <v>211</v>
       </c>
       <c r="G36" s="1">
         <v>210</v>
@@ -1304,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="1">
+        <v>232</v>
+      </c>
+      <c r="F37" s="1">
         <v>7</v>
-      </c>
-      <c r="F37" s="1">
-        <v>232</v>
       </c>
       <c r="G37" s="1">
         <v>231</v>
@@ -1327,10 +1308,10 @@
         <v>7</v>
       </c>
       <c r="E38" s="1">
+        <v>255</v>
+      </c>
+      <c r="F38" s="1">
         <v>8</v>
-      </c>
-      <c r="F38" s="1">
-        <v>255</v>
       </c>
       <c r="G38" s="1">
         <v>254</v>
@@ -1350,10 +1331,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="1">
+        <v>280</v>
+      </c>
+      <c r="F39" s="1">
         <v>8</v>
-      </c>
-      <c r="F39" s="1">
-        <v>280</v>
       </c>
       <c r="G39" s="1">
         <v>280</v>
@@ -1373,10 +1354,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="1">
+        <v>308</v>
+      </c>
+      <c r="F40" s="1">
         <v>8</v>
-      </c>
-      <c r="F40" s="1">
-        <v>308</v>
       </c>
       <c r="G40" s="1">
         <v>308</v>
@@ -1396,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="1">
+        <v>339</v>
+      </c>
+      <c r="F41" s="1">
         <v>8</v>
-      </c>
-      <c r="F41" s="1">
-        <v>339</v>
       </c>
       <c r="G41" s="1">
         <v>339</v>
@@ -1419,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="E42" s="1">
+        <v>373</v>
+      </c>
+      <c r="F42" s="1">
         <v>8</v>
-      </c>
-      <c r="F42" s="1">
-        <v>373</v>
       </c>
       <c r="G42" s="1">
         <v>373</v>
@@ -1442,10 +1423,10 @@
         <v>8</v>
       </c>
       <c r="E43" s="1">
+        <v>429</v>
+      </c>
+      <c r="F43" s="1">
         <v>9</v>
-      </c>
-      <c r="F43" s="1">
-        <v>429</v>
       </c>
       <c r="G43" s="1">
         <v>429</v>
@@ -1465,10 +1446,10 @@
         <v>8</v>
       </c>
       <c r="E44" s="1">
+        <v>494</v>
+      </c>
+      <c r="F44" s="1">
         <v>9</v>
-      </c>
-      <c r="F44" s="1">
-        <v>494</v>
       </c>
       <c r="G44" s="1">
         <v>493</v>
@@ -1488,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="E45" s="1">
+        <v>568</v>
+      </c>
+      <c r="F45" s="1">
         <v>9</v>
-      </c>
-      <c r="F45" s="1">
-        <v>568</v>
       </c>
       <c r="G45" s="1">
         <v>567</v>
@@ -1511,10 +1492,10 @@
         <v>8</v>
       </c>
       <c r="E46" s="1">
+        <v>653</v>
+      </c>
+      <c r="F46" s="1">
         <v>9</v>
-      </c>
-      <c r="F46" s="1">
-        <v>653</v>
       </c>
       <c r="G46" s="1">
         <v>652</v>
@@ -1534,10 +1515,10 @@
         <v>8</v>
       </c>
       <c r="E47" s="1">
+        <v>751</v>
+      </c>
+      <c r="F47" s="1">
         <v>9</v>
-      </c>
-      <c r="F47" s="1">
-        <v>751</v>
       </c>
       <c r="G47" s="1">
         <v>750</v>
@@ -1557,10 +1538,10 @@
         <v>9</v>
       </c>
       <c r="E48" s="1">
+        <v>863</v>
+      </c>
+      <c r="F48" s="1">
         <v>3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>863</v>
       </c>
       <c r="G48" s="1">
         <v>863</v>
@@ -1580,10 +1561,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="1">
+        <v>993</v>
+      </c>
+      <c r="F49" s="1">
         <v>4</v>
-      </c>
-      <c r="F49" s="1">
-        <v>993</v>
       </c>
       <c r="G49" s="1">
         <v>992</v>
@@ -1603,10 +1584,10 @@
         <v>9</v>
       </c>
       <c r="E50" s="1">
+        <v>1142</v>
+      </c>
+      <c r="F50" s="1">
         <v>5</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1142</v>
       </c>
       <c r="G50" s="1">
         <v>1141</v>
@@ -1626,10 +1607,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="1">
+        <v>1313</v>
+      </c>
+      <c r="F51" s="1">
         <v>6</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1313</v>
       </c>
       <c r="G51" s="1">
         <v>1312</v>
@@ -1649,10 +1630,10 @@
         <v>9</v>
       </c>
       <c r="E52" s="1">
+        <v>1510</v>
+      </c>
+      <c r="F52" s="1">
         <v>7</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1510</v>
       </c>
       <c r="G52" s="1">
         <v>1509</v>

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C145DB9A-B74A-4CE8-983B-F338C148CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2427606E-AF18-4703-9C6D-C33DFEE13C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -43,6 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +68,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,15 +452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -471,42 +470,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -523,10 +522,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -542,10 +545,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -561,10 +568,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>14</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -580,10 +591,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -599,10 +614,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
         <v>22</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -618,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>13</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>13</v>
@@ -641,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>15</v>
@@ -664,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
         <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>17</v>
@@ -687,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
         <v>19</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>19</v>
@@ -710,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
         <v>21</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>21</v>
@@ -733,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
         <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
       </c>
       <c r="G13" s="1">
         <v>23</v>
@@ -756,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
         <v>26</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
@@ -779,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
         <v>28</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
       </c>
       <c r="G15" s="1">
         <v>28</v>
@@ -802,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
         <v>31</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>31</v>
@@ -825,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>34</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>34</v>
@@ -848,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
         <v>38</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
       </c>
       <c r="G18" s="1">
         <v>37</v>
@@ -871,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
         <v>42</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
       </c>
       <c r="G19" s="1">
         <v>41</v>
@@ -894,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
         <v>46</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4</v>
       </c>
       <c r="G20" s="1">
         <v>45</v>
@@ -917,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
         <v>50</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
       </c>
       <c r="G21" s="1">
         <v>50</v>
@@ -940,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
         <v>55</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>55</v>
@@ -963,10 +982,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
         <v>61</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5</v>
       </c>
       <c r="G23" s="1">
         <v>60</v>
@@ -986,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
         <v>67</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5</v>
       </c>
       <c r="G24" s="1">
         <v>66</v>
@@ -1009,10 +1028,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
         <v>73</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
       </c>
       <c r="G25" s="1">
         <v>73</v>
@@ -1032,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
         <v>81</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5</v>
       </c>
       <c r="G26" s="1">
         <v>80</v>
@@ -1055,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
         <v>89</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
       </c>
       <c r="G27" s="1">
         <v>88</v>
@@ -1078,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="1">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
         <v>98</v>
-      </c>
-      <c r="F28" s="1">
-        <v>6</v>
       </c>
       <c r="G28" s="1">
         <v>97</v>
@@ -1101,10 +1120,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
         <v>108</v>
-      </c>
-      <c r="F29" s="1">
-        <v>6</v>
       </c>
       <c r="G29" s="1">
         <v>107</v>
@@ -1124,10 +1143,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
         <v>119</v>
-      </c>
-      <c r="F30" s="1">
-        <v>6</v>
       </c>
       <c r="G30" s="1">
         <v>118</v>
@@ -1147,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
         <v>131</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
       </c>
       <c r="G31" s="1">
         <v>130</v>
@@ -1170,10 +1189,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
         <v>144</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6</v>
       </c>
       <c r="G32" s="1">
         <v>143</v>
@@ -1193,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
         <v>158</v>
-      </c>
-      <c r="F33" s="1">
-        <v>7</v>
       </c>
       <c r="G33" s="1">
         <v>158</v>
@@ -1216,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
         <v>174</v>
-      </c>
-      <c r="F34" s="1">
-        <v>7</v>
       </c>
       <c r="G34" s="1">
         <v>174</v>
@@ -1239,10 +1258,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
         <v>192</v>
-      </c>
-      <c r="F35" s="1">
-        <v>7</v>
       </c>
       <c r="G35" s="1">
         <v>191</v>
@@ -1262,10 +1281,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
         <v>211</v>
-      </c>
-      <c r="F36" s="1">
-        <v>7</v>
       </c>
       <c r="G36" s="1">
         <v>210</v>
@@ -1285,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
         <v>232</v>
-      </c>
-      <c r="F37" s="1">
-        <v>7</v>
       </c>
       <c r="G37" s="1">
         <v>231</v>
@@ -1308,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
         <v>255</v>
-      </c>
-      <c r="F38" s="1">
-        <v>8</v>
       </c>
       <c r="G38" s="1">
         <v>254</v>
@@ -1331,10 +1350,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
         <v>280</v>
-      </c>
-      <c r="F39" s="1">
-        <v>8</v>
       </c>
       <c r="G39" s="1">
         <v>280</v>
@@ -1354,10 +1373,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="1">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
         <v>308</v>
-      </c>
-      <c r="F40" s="1">
-        <v>8</v>
       </c>
       <c r="G40" s="1">
         <v>308</v>
@@ -1377,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="1">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
         <v>339</v>
-      </c>
-      <c r="F41" s="1">
-        <v>8</v>
       </c>
       <c r="G41" s="1">
         <v>339</v>
@@ -1400,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="E42" s="1">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
         <v>373</v>
-      </c>
-      <c r="F42" s="1">
-        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>373</v>
@@ -1422,15 +1441,11 @@
       <c r="D43" s="1">
         <v>8</v>
       </c>
-      <c r="E43" s="1">
-        <v>429</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <v>9</v>
-      </c>
-      <c r="G43" s="1">
-        <v>429</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
@@ -1445,15 +1460,11 @@
       <c r="D44" s="1">
         <v>8</v>
       </c>
-      <c r="E44" s="1">
-        <v>494</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1">
-        <v>493</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
@@ -1468,15 +1479,11 @@
       <c r="D45" s="1">
         <v>8</v>
       </c>
-      <c r="E45" s="1">
-        <v>568</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1">
-        <v>567</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
@@ -1491,15 +1498,11 @@
       <c r="D46" s="1">
         <v>8</v>
       </c>
-      <c r="E46" s="1">
-        <v>653</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1">
-        <v>652</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
@@ -1514,15 +1517,11 @@
       <c r="D47" s="1">
         <v>8</v>
       </c>
-      <c r="E47" s="1">
-        <v>751</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1">
-        <v>750</v>
-      </c>
+        <v>1501</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
@@ -1538,10 +1537,10 @@
         <v>9</v>
       </c>
       <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
         <v>863</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3</v>
       </c>
       <c r="G48" s="1">
         <v>863</v>
@@ -1561,10 +1560,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
         <v>993</v>
-      </c>
-      <c r="F49" s="1">
-        <v>4</v>
       </c>
       <c r="G49" s="1">
         <v>992</v>
@@ -1584,10 +1583,10 @@
         <v>9</v>
       </c>
       <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
         <v>1142</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
       </c>
       <c r="G50" s="1">
         <v>1141</v>
@@ -1607,10 +1606,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
         <v>1313</v>
-      </c>
-      <c r="F51" s="1">
-        <v>6</v>
       </c>
       <c r="G51" s="1">
         <v>1312</v>
@@ -1630,10 +1629,10 @@
         <v>9</v>
       </c>
       <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1">
         <v>1510</v>
-      </c>
-      <c r="F52" s="1">
-        <v>7</v>
       </c>
       <c r="G52" s="1">
         <v>1509</v>
@@ -1642,5 +1641,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2427606E-AF18-4703-9C6D-C33DFEE13C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329761AB-7C86-4909-91EA-12D4DF04E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1534,7 +1534,7 @@
         <v>1726</v>
       </c>
       <c r="D48" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -1557,7 +1557,7 @@
         <v>1985</v>
       </c>
       <c r="D49" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -1580,7 +1580,7 @@
         <v>2283</v>
       </c>
       <c r="D50" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
         <v>5</v>
@@ -1603,7 +1603,7 @@
         <v>2625</v>
       </c>
       <c r="D51" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -1626,7 +1626,7 @@
         <v>3019</v>
       </c>
       <c r="D52" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1">
         <v>7</v>

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329761AB-7C86-4909-91EA-12D4DF04E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57AF0B-AAFF-497A-A3D8-9F1760147A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -453,12 +453,12 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>13</v>
@@ -660,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>15</v>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>17</v>
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>19</v>
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>21</v>
@@ -752,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>23</v>
       </c>
       <c r="G13" s="1">
         <v>23</v>
@@ -775,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
         <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>26</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
@@ -798,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1">
         <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>28</v>
       </c>
       <c r="G15" s="1">
         <v>28</v>
@@ -821,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
         <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>31</v>
       </c>
       <c r="G16" s="1">
         <v>31</v>
@@ -844,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>34</v>
       </c>
       <c r="G17" s="1">
         <v>34</v>
@@ -867,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1">
         <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>37</v>
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1">
         <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>42</v>
       </c>
       <c r="G19" s="1">
         <v>41</v>
@@ -913,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1">
         <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>46</v>
       </c>
       <c r="G20" s="1">
         <v>45</v>
@@ -936,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
         <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>50</v>
       </c>
       <c r="G21" s="1">
         <v>50</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>55</v>
       </c>
       <c r="G22" s="1">
         <v>55</v>
@@ -982,10 +982,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="1">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1">
         <v>5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>61</v>
       </c>
       <c r="G23" s="1">
         <v>60</v>
@@ -1005,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1">
         <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>67</v>
       </c>
       <c r="G24" s="1">
         <v>66</v>
@@ -1028,10 +1028,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="1">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1">
         <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>73</v>
       </c>
       <c r="G25" s="1">
         <v>73</v>
@@ -1051,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1">
         <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>81</v>
       </c>
       <c r="G26" s="1">
         <v>80</v>
@@ -1074,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1">
         <v>5</v>
-      </c>
-      <c r="F27" s="1">
-        <v>89</v>
       </c>
       <c r="G27" s="1">
         <v>88</v>
@@ -1097,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="1">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1">
         <v>6</v>
-      </c>
-      <c r="F28" s="1">
-        <v>98</v>
       </c>
       <c r="G28" s="1">
         <v>97</v>
@@ -1120,10 +1120,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="1">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1">
         <v>6</v>
-      </c>
-      <c r="F29" s="1">
-        <v>108</v>
       </c>
       <c r="G29" s="1">
         <v>107</v>
@@ -1143,10 +1143,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1">
         <v>6</v>
-      </c>
-      <c r="F30" s="1">
-        <v>119</v>
       </c>
       <c r="G30" s="1">
         <v>118</v>
@@ -1166,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="1">
+        <v>131</v>
+      </c>
+      <c r="F31" s="1">
         <v>6</v>
-      </c>
-      <c r="F31" s="1">
-        <v>131</v>
       </c>
       <c r="G31" s="1">
         <v>130</v>
@@ -1189,10 +1189,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="1">
+        <v>144</v>
+      </c>
+      <c r="F32" s="1">
         <v>6</v>
-      </c>
-      <c r="F32" s="1">
-        <v>144</v>
       </c>
       <c r="G32" s="1">
         <v>143</v>
@@ -1212,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1">
+        <v>158</v>
+      </c>
+      <c r="F33" s="1">
         <v>7</v>
-      </c>
-      <c r="F33" s="1">
-        <v>158</v>
       </c>
       <c r="G33" s="1">
         <v>158</v>
@@ -1235,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="1">
+        <v>174</v>
+      </c>
+      <c r="F34" s="1">
         <v>7</v>
-      </c>
-      <c r="F34" s="1">
-        <v>174</v>
       </c>
       <c r="G34" s="1">
         <v>174</v>
@@ -1258,10 +1258,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="1">
+        <v>192</v>
+      </c>
+      <c r="F35" s="1">
         <v>7</v>
-      </c>
-      <c r="F35" s="1">
-        <v>192</v>
       </c>
       <c r="G35" s="1">
         <v>191</v>
@@ -1281,10 +1281,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="1">
+        <v>211</v>
+      </c>
+      <c r="F36" s="1">
         <v>7</v>
-      </c>
-      <c r="F36" s="1">
-        <v>211</v>
       </c>
       <c r="G36" s="1">
         <v>210</v>
@@ -1304,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="1">
+        <v>232</v>
+      </c>
+      <c r="F37" s="1">
         <v>7</v>
-      </c>
-      <c r="F37" s="1">
-        <v>232</v>
       </c>
       <c r="G37" s="1">
         <v>231</v>
@@ -1327,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="E38" s="1">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="F38" s="1">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1">
         <v>254</v>
@@ -1350,10 +1350,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="1">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="F39" s="1">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1">
         <v>280</v>
@@ -1373,10 +1373,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="1">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="F40" s="1">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
         <v>308</v>
@@ -1396,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="1">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="F41" s="1">
-        <v>339</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
         <v>339</v>
@@ -1419,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="E42" s="1">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="F42" s="1">
-        <v>373</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>373</v>
@@ -1441,10 +1441,10 @@
       <c r="D43" s="1">
         <v>8</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1">
+      <c r="E43" s="1">
         <v>858</v>
       </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -1460,10 +1460,10 @@
       <c r="D44" s="1">
         <v>8</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
+      <c r="E44" s="1">
         <v>987</v>
       </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -1479,10 +1479,10 @@
       <c r="D45" s="1">
         <v>8</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1">
+      <c r="E45" s="1">
         <v>1135</v>
       </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -1498,10 +1498,10 @@
       <c r="D46" s="1">
         <v>8</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1">
+      <c r="E46" s="1">
         <v>1305</v>
       </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -1517,10 +1517,10 @@
       <c r="D47" s="1">
         <v>8</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1">
+      <c r="E47" s="1">
         <v>1501</v>
       </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -1537,10 +1537,10 @@
         <v>8</v>
       </c>
       <c r="E48" s="1">
+        <v>863</v>
+      </c>
+      <c r="F48" s="1">
         <v>3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>863</v>
       </c>
       <c r="G48" s="1">
         <v>863</v>
@@ -1560,10 +1560,10 @@
         <v>8</v>
       </c>
       <c r="E49" s="1">
+        <v>993</v>
+      </c>
+      <c r="F49" s="1">
         <v>4</v>
-      </c>
-      <c r="F49" s="1">
-        <v>993</v>
       </c>
       <c r="G49" s="1">
         <v>992</v>
@@ -1583,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="E50" s="1">
+        <v>1142</v>
+      </c>
+      <c r="F50" s="1">
         <v>5</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1142</v>
       </c>
       <c r="G50" s="1">
         <v>1141</v>
@@ -1606,10 +1606,10 @@
         <v>8</v>
       </c>
       <c r="E51" s="1">
+        <v>1313</v>
+      </c>
+      <c r="F51" s="1">
         <v>6</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1313</v>
       </c>
       <c r="G51" s="1">
         <v>1312</v>
@@ -1629,10 +1629,10 @@
         <v>8</v>
       </c>
       <c r="E52" s="1">
+        <v>1510</v>
+      </c>
+      <c r="F52" s="1">
         <v>7</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1510</v>
       </c>
       <c r="G52" s="1">
         <v>1509</v>

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57AF0B-AAFF-497A-A3D8-9F1760147A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB295A9B-724B-4E5B-8AA7-D35FF8C6FFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,12 +452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>
@@ -470,42 +471,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -524,12 +525,8 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -547,12 +544,8 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -570,12 +563,8 @@
       <c r="E5" s="1">
         <v>14</v>
       </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -593,12 +582,8 @@
       <c r="E6" s="1">
         <v>18</v>
       </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -616,12 +601,8 @@
       <c r="E7" s="1">
         <v>22</v>
       </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB295A9B-724B-4E5B-8AA7-D35FF8C6FFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAD74D3-2AA7-4A19-840D-8402E414295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -452,13 +452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" customWidth="1"/>
   </cols>

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAD74D3-2AA7-4A19-840D-8402E414295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8223EBC5-C31E-40DA-A61A-978832782044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
@@ -33,13 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,7 +71,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TotalAmount</t>
+    <t>Monster3</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster3Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster4Amount</t>
+  </si>
+  <si>
+    <t>Monster5</t>
+  </si>
+  <si>
+    <t>Monster6</t>
+  </si>
+  <si>
+    <t>Monster6Amount</t>
+  </si>
+  <si>
+    <t>Monster7</t>
+  </si>
+  <si>
+    <t>Monster7Amount</t>
+  </si>
+  <si>
+    <t>Monster8</t>
+  </si>
+  <si>
+    <t>Monster8Amount</t>
+  </si>
+  <si>
+    <t>Monster4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster5Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50+NA10:M52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,11 +176,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,20 +500,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="9" max="9" width="15.09765625" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.09765625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" customWidth="1"/>
+    <col min="19" max="19" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,45 +526,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -527,8 +654,20 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -546,8 +685,20 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,8 +716,20 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -584,8 +747,20 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -603,8 +778,20 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -626,8 +813,20 @@
       <c r="G8" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -649,8 +848,20 @@
       <c r="G9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -672,8 +883,20 @@
       <c r="G10" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -695,8 +918,20 @@
       <c r="G11" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -718,8 +953,20 @@
       <c r="G12" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -741,8 +988,20 @@
       <c r="G13" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -764,8 +1023,20 @@
       <c r="G14" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -787,8 +1058,20 @@
       <c r="G15" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -810,8 +1093,20 @@
       <c r="G16" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -833,8 +1128,20 @@
       <c r="G17" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -856,8 +1163,20 @@
       <c r="G18" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -879,8 +1198,20 @@
       <c r="G19" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -902,8 +1233,20 @@
       <c r="G20" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -925,8 +1268,20 @@
       <c r="G21" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -948,8 +1303,20 @@
       <c r="G22" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -971,8 +1338,20 @@
       <c r="G23" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -994,8 +1373,20 @@
       <c r="G24" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1017,8 +1408,20 @@
       <c r="G25" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1040,8 +1443,20 @@
       <c r="G26" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1063,8 +1478,20 @@
       <c r="G27" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1086,8 +1513,20 @@
       <c r="G28" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1109,8 +1548,20 @@
       <c r="G29" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1132,8 +1583,20 @@
       <c r="G30" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1155,8 +1618,20 @@
       <c r="G31" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1178,8 +1653,20 @@
       <c r="G32" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1201,8 +1688,20 @@
       <c r="G33" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1224,8 +1723,20 @@
       <c r="G34" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1247,8 +1758,20 @@
       <c r="G35" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1270,8 +1793,20 @@
       <c r="G36" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1293,8 +1828,20 @@
       <c r="G37" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1316,8 +1863,20 @@
       <c r="G38" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1339,8 +1898,20 @@
       <c r="G39" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1362,8 +1933,20 @@
       <c r="G40" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1385,8 +1968,20 @@
       <c r="G41" s="1">
         <v>339</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1408,8 +2003,20 @@
       <c r="G42" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1427,8 +2034,20 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1446,8 +2065,20 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1465,8 +2096,20 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1484,8 +2127,20 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1503,8 +2158,20 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1518,16 +2185,36 @@
         <v>8</v>
       </c>
       <c r="E48" s="1">
-        <v>863</v>
+        <v>431</v>
       </c>
       <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>433</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>431</v>
+      </c>
+      <c r="J48" s="1">
         <v>3</v>
       </c>
-      <c r="G48" s="1">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K48" s="1">
+        <v>431</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1541,16 +2228,36 @@
         <v>8</v>
       </c>
       <c r="E49" s="1">
-        <v>993</v>
+        <v>496</v>
       </c>
       <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>497</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>496</v>
+      </c>
+      <c r="J49" s="1">
         <v>4</v>
       </c>
-      <c r="G49" s="1">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K49" s="1">
+        <v>496</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1564,16 +2271,36 @@
         <v>8</v>
       </c>
       <c r="E50" s="1">
-        <v>1142</v>
+        <v>570</v>
       </c>
       <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>573</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>570</v>
+      </c>
+      <c r="J50" s="1">
         <v>5</v>
       </c>
-      <c r="G50" s="1">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K50" s="1">
+        <v>570</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1587,18 +2314,38 @@
         <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>1313</v>
+        <v>656</v>
       </c>
       <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>657</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1">
+        <v>656</v>
+      </c>
+      <c r="J51" s="1">
         <v>6</v>
       </c>
-      <c r="G51" s="1">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="K51" s="1">
+        <v>656</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
@@ -1610,13 +2357,49 @@
         <v>8</v>
       </c>
       <c r="E52" s="1">
-        <v>1510</v>
+        <v>377</v>
       </c>
       <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>380</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>377</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
+        <v>377</v>
+      </c>
+      <c r="L52" s="2">
+        <v>4</v>
+      </c>
+      <c r="M52" s="2">
+        <v>377</v>
+      </c>
+      <c r="N52" s="1">
+        <v>5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>377</v>
+      </c>
+      <c r="P52" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>377</v>
+      </c>
+      <c r="R52" s="1">
         <v>7</v>
       </c>
-      <c r="G52" s="1">
-        <v>1509</v>
+      <c r="S52" s="1">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/MonsterAmount.xlsx
+++ b/Design/DataTable/MonsterAmount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8223EBC5-C31E-40DA-A61A-978832782044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DAA9FB-35FD-4698-8A1A-4DAEAF3CBD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12120" xr2:uid="{75785EE9-E264-4B1A-BC05-2AE914773EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>Monster5Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50+NA10:M52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,23 +498,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F48A6-9D7D-4F22-A230-C64F03FDC591}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" customWidth="1"/>
-    <col min="19" max="19" width="15.09765625" customWidth="1"/>
+    <col min="17" max="17" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -636,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -667,7 +663,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -698,7 +694,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -729,7 +725,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -760,7 +756,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -791,7 +787,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -826,7 +822,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -861,7 +857,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -896,7 +892,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -931,7 +927,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -966,7 +962,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1001,7 +997,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1036,7 +1032,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1071,7 +1067,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1106,7 +1102,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1141,7 +1137,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,7 +1172,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1211,7 +1207,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1246,7 +1242,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1281,7 +1277,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1316,7 +1312,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1351,7 +1347,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1386,7 +1382,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1421,7 +1417,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1456,7 +1452,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1491,7 +1487,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1526,7 +1522,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1561,7 +1557,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1596,7 +1592,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1631,7 +1627,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1666,7 +1662,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1701,7 +1697,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1736,7 +1732,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1771,7 +1767,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1806,7 +1802,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1841,7 +1837,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1876,7 +1872,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1911,7 +1907,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1946,7 +1942,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1981,7 +1977,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2016,7 +2012,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2047,7 +2043,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2078,7 +2074,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2109,7 +2105,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2140,7 +2136,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2171,7 +2167,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2214,7 +2210,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2257,7 +2253,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2300,7 +2296,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2343,9 +2339,9 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>22</v>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
